--- a/List-01.xlsx
+++ b/List-01.xlsx
@@ -16,6 +16,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>апаоапоо</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,15 +339,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D2"/>
+  <dimension ref="B1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>45456</v>
       </c>
@@ -349,8 +360,11 @@
       <c r="D1">
         <v>3466</v>
       </c>
+      <c r="F1">
+        <v>567687568</v>
+      </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>87879</v>
       </c>
@@ -359,6 +373,9 @@
       </c>
       <c r="D2">
         <v>346346</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
